--- a/data/artist.xlsx
+++ b/data/artist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinseo/Duckku_be/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8EDAE7-5120-9D43-9FC7-282B6B6ECC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A234B29-286E-164C-B3E7-AEA922DBE893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10880" yWindow="1000" windowWidth="25660" windowHeight="15400" xr2:uid="{F02E89AB-865E-4742-90FB-4F86346947F0}"/>
   </bookViews>
